--- a/site/hello-sparnatural/config.xlsx
+++ b/site/hello-sparnatural/config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="415">
   <si>
     <t>PREFIX</t>
   </si>
@@ -244,7 +244,10 @@
     <t>rico:Identifier</t>
   </si>
   <si>
-    <t>Les cotes sont les identifiants uniques des sacs. Chaque identifiant correspond à un seul sac. Un sac peut avoir plusieurs identifiants (de types différents).</t>
+    <t>Identifiant</t>
+  </si>
+  <si>
+    <t>Ici les identifiants utilisés dans le modèle. Les cotes sont les identifiants uniques des sacs. Chaque identifiant correspond à un seul sac. Un sac peut avoir plusieurs identifiants (de types différents). Les lieux peuvent avoir un code INSEE.</t>
   </si>
   <si>
     <t>"^https://data.archives.haute-garonne.fr/instanciation/[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}"#[cote|castan[123]]"</t>
@@ -636,10 +639,10 @@
     <t>rico:IdentifierType</t>
   </si>
   <si>
-    <t>Type de cote</t>
-  </si>
-  <si>
-    <t>Vocabulaire contrôlé qualifiant une cote</t>
+    <t>Type d'identifiant</t>
+  </si>
+  <si>
+    <t>Vocabulaire contrôlé qualifiant un identifiant</t>
   </si>
   <si>
     <r>
@@ -651,7 +654,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://data.archives.haute-garonne.fr/type/ct</t>
+      <t>https://data.archives.haute-garonne.fr/type/id</t>
     </r>
     <r>
       <rPr/>
@@ -1464,7 +1467,7 @@
     <t>vocabulaire:ju</t>
   </si>
   <si>
-    <t>vocabulaire:ct</t>
+    <t>vocabulaire:id</t>
   </si>
   <si>
     <t>vocabulaire:li</t>
@@ -4316,27 +4319,27 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="43" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" s="44"/>
       <c r="L13" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N13" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O13" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
@@ -4402,7 +4405,7 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -4444,42 +4447,42 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="44"/>
       <c r="L16" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N16" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="40"/>
       <c r="R16" s="40"/>
@@ -4546,7 +4549,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -4588,42 +4591,42 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" s="40"/>
       <c r="L19" s="51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N19" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -4732,42 +4735,42 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22" s="40"/>
       <c r="L22" s="41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M22" s="52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N22" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O22" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="40"/>
@@ -4834,7 +4837,7 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -4876,11 +4879,11 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>71</v>
@@ -4891,30 +4894,30 @@
         <v>sacs:Instruction-target</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I25" s="40"/>
       <c r="J25" s="43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K25" s="40"/>
       <c r="L25" s="41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M25" s="45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N25" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O25" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
@@ -4981,7 +4984,7 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -5023,11 +5026,11 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>71</v>
@@ -5038,30 +5041,30 @@
         <v>sacs:Juridiction-target</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K28" s="40"/>
       <c r="L28" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M28" s="45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N28" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O28" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -5128,7 +5131,7 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -5170,11 +5173,11 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>71</v>
@@ -5185,30 +5188,30 @@
         <v>sacs:Liasse-target</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I31" s="40"/>
       <c r="J31" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K31" s="40"/>
       <c r="L31" s="41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M31" s="45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N31" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O31" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
@@ -5275,7 +5278,7 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -5317,42 +5320,42 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B34" s="40"/>
       <c r="C34" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I34" s="40"/>
       <c r="J34" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K34" s="40"/>
       <c r="L34" s="41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M34" s="52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N34" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O34" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q34" s="40"/>
       <c r="R34" s="40"/>
@@ -5419,7 +5422,7 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -5461,11 +5464,11 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>71</v>
@@ -5476,30 +5479,30 @@
         <v>sacs:Procedure-target</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I37" s="40"/>
       <c r="J37" s="43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K37" s="40"/>
       <c r="L37" s="41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M37" s="45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N37" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O37" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P37" s="41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q37" s="40"/>
       <c r="R37" s="40"/>
@@ -5566,7 +5569,7 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -5608,11 +5611,11 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D40" s="42" t="s">
         <v>71</v>
@@ -5623,30 +5626,30 @@
         <v>sacs:Sac-target</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K40" s="40"/>
       <c r="L40" s="41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M40" s="45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N40" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O40" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P40" s="41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
@@ -5713,7 +5716,7 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -5755,11 +5758,11 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D43" s="42" t="s">
         <v>71</v>
@@ -5770,30 +5773,30 @@
         <v>sacs:PersonneMorale-target</v>
       </c>
       <c r="G43" s="51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K43" s="40"/>
       <c r="L43" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M43" s="45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N43" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O43" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P43" s="41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
@@ -5860,7 +5863,7 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -5902,42 +5905,42 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D46" s="42" t="s">
         <v>71</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I46" s="40"/>
       <c r="J46" s="53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K46" s="40"/>
       <c r="L46" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M46" s="45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N46" s="45" t="b">
         <v>1</v>
       </c>
       <c r="O46" s="45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P46" s="41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46" s="40"/>
       <c r="R46" s="40"/>
@@ -5998,7 +6001,7 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -6282,7 +6285,7 @@
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
       <c r="H64" s="55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I64" s="54"/>
       <c r="J64" s="54"/>
@@ -6297,7 +6300,7 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
@@ -6339,322 +6342,322 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D66" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E66" s="52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H66" s="41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I66" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J66" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L66" s="60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M66" s="45"/>
       <c r="N66" s="45"/>
       <c r="O66" s="45"/>
       <c r="P66" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D67" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I67" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J67" s="59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L67" s="60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M67" s="45"/>
       <c r="N67" s="45"/>
       <c r="O67" s="45"/>
       <c r="P67" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C68" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D68" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H68" s="41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I68" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J68" s="59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L68" s="60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M68" s="45"/>
       <c r="N68" s="45"/>
       <c r="O68" s="45"/>
       <c r="P68" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D69" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I69" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J69" s="59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L69" s="60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M69" s="45"/>
       <c r="N69" s="45"/>
       <c r="O69" s="45"/>
       <c r="P69" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D70" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I70" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J70" s="59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L70" s="60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M70" s="45"/>
       <c r="N70" s="45"/>
       <c r="O70" s="45"/>
       <c r="P70" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D71" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I71" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J71" s="59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L71" s="60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M71" s="45"/>
       <c r="N71" s="45"/>
       <c r="O71" s="45"/>
       <c r="P71" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D72" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I72" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J72" s="59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L72" s="60" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M72" s="45"/>
       <c r="N72" s="45"/>
       <c r="O72" s="45"/>
       <c r="P72" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D73" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E73" s="46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H73" s="46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I73" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J73" s="59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L73" s="60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M73" s="45"/>
       <c r="N73" s="45"/>
       <c r="O73" s="45"/>
       <c r="P73" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D74" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E74" s="46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H74" s="41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I74" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J74" s="59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L74" s="60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M74" s="45"/>
       <c r="N74" s="45"/>
       <c r="O74" s="45"/>
       <c r="P74" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D75" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E75" s="46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H75" s="41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I75" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J75" s="59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L75" s="60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M75" s="45"/>
       <c r="N75" s="45"/>
       <c r="O75" s="45"/>
       <c r="P75" s="46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
@@ -6664,7 +6667,7 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
@@ -11565,60 +11568,60 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I6" s="66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L6" s="66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M6" s="67"/>
       <c r="N6" s="67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O6" s="67"/>
       <c r="P6" s="67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R6" s="66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
       <c r="U6" s="66"/>
       <c r="V6" s="66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="W6" s="66"/>
       <c r="X6" s="66"/>
@@ -11640,73 +11643,73 @@
         <v>50</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S7" s="70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T7" s="35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U7" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V7" s="33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="W7" s="33" t="s">
         <v>60</v>
       </c>
       <c r="X7" s="34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y7" s="71" t="s">
         <v>67</v>
@@ -11774,14 +11777,14 @@
         <v>sacs:Cote_name</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -11792,10 +11795,10 @@
         <v>1.0</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L9" s="50"/>
       <c r="M9" s="40"/>
@@ -11803,7 +11806,7 @@
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R9" s="52"/>
       <c r="S9" s="40"/>
@@ -11836,17 +11839,17 @@
         <v>sacs:Cote_hasIdentifierType</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="41" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="59">
@@ -11856,11 +11859,11 @@
         <v>1.0</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K10" s="40"/>
       <c r="L10" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
@@ -11937,7 +11940,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -11986,17 +11989,17 @@
         <v>sacs:Date_normalizedDateValue</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="59">
@@ -12006,10 +12009,10 @@
         <v>1.0</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
@@ -12047,17 +12050,17 @@
         <v>sacs:Date_expressedDate</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="59">
@@ -12067,10 +12070,10 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
@@ -12078,7 +12081,7 @@
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
       <c r="Q14" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R14" s="52"/>
       <c r="S14" s="40"/>
@@ -12150,7 +12153,7 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -12199,17 +12202,17 @@
         <v>sacs:Notice_name</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="79"/>
       <c r="E17" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G17" s="79"/>
       <c r="H17" s="83">
@@ -12226,7 +12229,7 @@
       <c r="O17" s="79"/>
       <c r="P17" s="79"/>
       <c r="Q17" s="86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R17" s="86"/>
       <c r="S17" s="79"/>
@@ -12259,17 +12262,17 @@
         <v>sacs:Notice_generalDescription</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F18" s="89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="59"/>
@@ -12277,10 +12280,10 @@
         <v>1.0</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
@@ -12318,17 +12321,17 @@
         <v>sacs:Notice_recordResourceExtent</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="59"/>
@@ -12336,10 +12339,10 @@
         <v>1.0</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
@@ -12378,17 +12381,17 @@
         <v>sacs:Notice_hasOrHadInstantiation</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="59">
@@ -12398,12 +12401,12 @@
         <v>1.0</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K20" s="40"/>
       <c r="L20" s="43"/>
       <c r="M20" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
@@ -12440,17 +12443,17 @@
         <v>sacs:Notice_documents</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="59">
@@ -12460,12 +12463,12 @@
         <v>1.0</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K21" s="40"/>
       <c r="L21" s="43"/>
       <c r="M21" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
@@ -12541,7 +12544,7 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
@@ -12590,17 +12593,17 @@
         <v>sacs:Fait_name</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="91"/>
       <c r="E24" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G24" s="91"/>
       <c r="H24" s="83">
@@ -12610,10 +12613,10 @@
         <v>1.0</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K24" s="84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" s="91"/>
       <c r="M24" s="79"/>
@@ -12621,7 +12624,7 @@
       <c r="O24" s="79"/>
       <c r="P24" s="79"/>
       <c r="Q24" s="86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R24" s="86"/>
       <c r="S24" s="79"/>
@@ -12654,17 +12657,17 @@
         <v>sacs:Fait_hasEventType</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="59">
@@ -12672,11 +12675,11 @@
       </c>
       <c r="I25" s="59"/>
       <c r="J25" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K25" s="50"/>
       <c r="L25" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
@@ -12714,17 +12717,17 @@
         <v>sacs:Fait_hasOrHadLocation</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="59">
@@ -12732,11 +12735,11 @@
       </c>
       <c r="I26" s="59"/>
       <c r="J26" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K26" s="50"/>
       <c r="L26" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
@@ -12813,7 +12816,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -12862,17 +12865,17 @@
         <v>sacs:Instruction_name</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D29" s="91"/>
       <c r="E29" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G29" s="91"/>
       <c r="H29" s="83">
@@ -12882,10 +12885,10 @@
         <v>1.0</v>
       </c>
       <c r="J29" s="84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K29" s="84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L29" s="91"/>
       <c r="M29" s="79"/>
@@ -12893,7 +12896,7 @@
       <c r="O29" s="79"/>
       <c r="P29" s="79"/>
       <c r="Q29" s="86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R29" s="86"/>
       <c r="S29" s="79"/>
@@ -12926,17 +12929,17 @@
         <v>sacs:Instruction_hasActivityType</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G30" s="50"/>
       <c r="H30" s="59">
@@ -12946,15 +12949,15 @@
         <v>1.0</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K30" s="50"/>
       <c r="L30" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N30" s="50"/>
       <c r="O30" s="93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P30" s="40"/>
       <c r="Q30" s="52"/>
@@ -12989,17 +12992,17 @@
         <v>sacs:Instruction_followsInTime</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G31" s="50"/>
       <c r="H31" s="59"/>
@@ -13007,11 +13010,11 @@
         <v>1.0</v>
       </c>
       <c r="J31" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K31" s="50"/>
       <c r="M31" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N31" s="50"/>
       <c r="O31" s="40"/>
@@ -13048,17 +13051,17 @@
         <v>sacs:Instruction_precedesInTime</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="59"/>
@@ -13066,12 +13069,12 @@
         <v>1.0</v>
       </c>
       <c r="J32" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K32" s="50"/>
       <c r="L32" s="43"/>
       <c r="M32" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="40"/>
@@ -13108,17 +13111,17 @@
         <v>sacs:Instruction_isOrWasPerformedBy</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="59">
@@ -13128,11 +13131,11 @@
         <v>1.0</v>
       </c>
       <c r="J33" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K33" s="50"/>
       <c r="M33" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N33" s="50"/>
       <c r="P33" s="40"/>
@@ -13207,7 +13210,7 @@
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -13256,17 +13259,17 @@
         <v>sacs:Juridiction_name</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G36" s="50"/>
       <c r="H36" s="59">
@@ -13276,10 +13279,10 @@
         <v>1.0</v>
       </c>
       <c r="J36" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K36" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L36" s="50"/>
       <c r="M36" s="50"/>
@@ -13287,7 +13290,7 @@
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
       <c r="Q36" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R36" s="52"/>
       <c r="S36" s="40"/>
@@ -13320,17 +13323,17 @@
         <v>sacs:Juridiction_hasOrHadLegalStatus</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G37" s="50"/>
       <c r="H37" s="59">
@@ -13340,11 +13343,11 @@
         <v>1.0</v>
       </c>
       <c r="J37" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K37" s="50"/>
       <c r="L37" s="43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M37" s="50"/>
       <c r="N37" s="50"/>
@@ -13382,17 +13385,17 @@
         <v>sacs:Juridiction_agentHasOrHadLocation</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G38" s="50"/>
       <c r="H38" s="59">
@@ -13402,11 +13405,11 @@
         <v>1.0</v>
       </c>
       <c r="J38" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K38" s="50"/>
       <c r="L38" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M38" s="50"/>
       <c r="N38" s="50"/>
@@ -13444,17 +13447,17 @@
         <v>sacs:Juridiction_hasOrHadCorporateBodyType</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="41" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="41">
@@ -13464,16 +13467,16 @@
         <v>1.0</v>
       </c>
       <c r="J39" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K39" s="40"/>
       <c r="L39" s="43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M39" s="40"/>
       <c r="N39" s="40"/>
       <c r="O39" s="41" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="40"/>
@@ -13547,7 +13550,7 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="72" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -13596,17 +13599,17 @@
         <v>sacs:Liasse_hasCarrierType</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42" s="50"/>
       <c r="E42" s="41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G42" s="50"/>
       <c r="H42" s="59">
@@ -13616,15 +13619,15 @@
         <v>1.0</v>
       </c>
       <c r="J42" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K42" s="42"/>
       <c r="L42" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N42" s="40"/>
       <c r="O42" s="93" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
@@ -13659,17 +13662,17 @@
         <v>sacs:Liasse_title</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43" s="50"/>
       <c r="E43" s="43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G43" s="50"/>
       <c r="H43" s="59">
@@ -13679,10 +13682,10 @@
         <v>1.0</v>
       </c>
       <c r="J43" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K43" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L43" s="50"/>
       <c r="M43" s="40"/>
@@ -13690,7 +13693,7 @@
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
       <c r="Q43" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R43" s="52"/>
       <c r="S43" s="40"/>
@@ -13723,17 +13726,17 @@
         <v>sacs:Liasse_hadComponent</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D44" s="50"/>
       <c r="E44" s="43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G44" s="50"/>
       <c r="H44" s="59">
@@ -13741,11 +13744,11 @@
       </c>
       <c r="I44" s="59"/>
       <c r="J44" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K44" s="50"/>
       <c r="M44" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N44" s="40"/>
       <c r="O44" s="40"/>
@@ -13821,7 +13824,7 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -13870,17 +13873,17 @@
         <v>sacs:Lieu_name</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G47" s="50"/>
       <c r="H47" s="59">
@@ -13890,10 +13893,10 @@
         <v>1.0</v>
       </c>
       <c r="J47" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K47" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L47" s="50"/>
       <c r="M47" s="50"/>
@@ -13901,7 +13904,7 @@
       <c r="O47" s="40"/>
       <c r="P47" s="40"/>
       <c r="Q47" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R47" s="52"/>
       <c r="S47" s="40"/>
@@ -13934,17 +13937,17 @@
         <v>sacs:Lieu_hasOrHadPlaceType</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D48" s="50"/>
       <c r="E48" s="43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G48" s="50"/>
       <c r="H48" s="59">
@@ -13954,11 +13957,11 @@
         <v>1.0</v>
       </c>
       <c r="J48" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K48" s="50"/>
       <c r="L48" s="43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M48" s="50"/>
       <c r="N48" s="50"/>
@@ -13996,17 +13999,17 @@
         <v>sacs:Lieu_isDirectlyContainedBy</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="95" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G49" s="50"/>
       <c r="H49" s="59"/>
@@ -14014,11 +14017,11 @@
         <v>1.0</v>
       </c>
       <c r="J49" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K49" s="50"/>
       <c r="L49" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M49" s="50"/>
       <c r="N49" s="50"/>
@@ -14056,27 +14059,27 @@
         <v>sacs:Lieu_directlyContains</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D50" s="50"/>
       <c r="E50" s="95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G50" s="50"/>
       <c r="H50" s="59"/>
       <c r="I50" s="59"/>
       <c r="J50" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K50" s="50"/>
       <c r="L50" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M50" s="50"/>
       <c r="N50" s="50"/>
@@ -14114,17 +14117,17 @@
         <v>sacs:Lieu_hasOrHadIdentifier</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D51" s="50"/>
       <c r="E51" s="43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G51" s="43"/>
       <c r="H51" s="43">
@@ -14134,7 +14137,7 @@
         <v>1.0</v>
       </c>
       <c r="J51" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K51" s="50"/>
       <c r="L51" s="43" t="s">
@@ -14215,7 +14218,7 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -14260,26 +14263,26 @@
     </row>
     <row r="54" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A54" s="41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G54" s="50"/>
       <c r="H54" s="59"/>
       <c r="I54" s="59"/>
       <c r="J54" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -14289,7 +14292,7 @@
       <c r="Q54" s="40"/>
       <c r="R54" s="52"/>
       <c r="S54" s="96" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T54" s="41">
         <v>1.0</v>
@@ -14320,26 +14323,26 @@
     </row>
     <row r="55" ht="14.25" customHeight="1" outlineLevel="1">
       <c r="A55" s="41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D55" s="50"/>
       <c r="E55" s="43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G55" s="50"/>
       <c r="H55" s="59"/>
       <c r="I55" s="59"/>
       <c r="J55" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K55" s="42"/>
       <c r="L55" s="43"/>
@@ -14348,10 +14351,10 @@
       <c r="P55" s="40"/>
       <c r="Q55" s="40"/>
       <c r="R55" s="58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S55" s="96" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T55" s="40"/>
       <c r="U55" s="41">
@@ -14384,17 +14387,17 @@
         <v>sacs:Procedure_hasActivityType</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C56" s="98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D56" s="99"/>
       <c r="E56" s="98" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G56" s="99"/>
       <c r="H56" s="100">
@@ -14404,11 +14407,11 @@
         <v>3.0</v>
       </c>
       <c r="J56" s="101" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K56" s="101"/>
       <c r="L56" s="98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M56" s="102"/>
       <c r="N56" s="99"/>
@@ -14446,17 +14449,17 @@
         <v>sacs:Procedure_name</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D57" s="50"/>
       <c r="E57" s="43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G57" s="50"/>
       <c r="H57" s="109">
@@ -14466,10 +14469,10 @@
         <v>1.0</v>
       </c>
       <c r="J57" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K57" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L57" s="50"/>
       <c r="M57" s="50"/>
@@ -14477,7 +14480,7 @@
       <c r="O57" s="40"/>
       <c r="P57" s="40"/>
       <c r="Q57" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R57" s="52"/>
       <c r="S57" s="40"/>
@@ -14510,17 +14513,17 @@
         <v>sacs:Procedure_resultsOrResultedFrom</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D58" s="50"/>
       <c r="E58" s="94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G58" s="50"/>
       <c r="H58" s="59">
@@ -14530,10 +14533,10 @@
         <v>1.0</v>
       </c>
       <c r="J58" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L58" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M58" s="43"/>
       <c r="N58" s="50"/>
@@ -14571,17 +14574,17 @@
         <v>sacs:Procedure_hasOrHadSubevent</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="59">
@@ -14589,11 +14592,11 @@
       </c>
       <c r="I59" s="59"/>
       <c r="J59" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L59" s="43"/>
       <c r="M59" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N59" s="50"/>
       <c r="O59" s="40"/>
@@ -14630,27 +14633,27 @@
         <v>sacs:Procedure_isAssociatedWithEvent</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="94" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G60" s="50"/>
       <c r="I60" s="59"/>
       <c r="J60" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K60" s="50"/>
       <c r="L60" s="43"/>
       <c r="M60" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N60" s="50"/>
       <c r="O60" s="40"/>
@@ -14687,28 +14690,28 @@
         <v>sacs:Procedure_hasOrHadParticipant</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G61" s="50"/>
       <c r="H61" s="59"/>
       <c r="I61" s="59"/>
       <c r="J61" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K61" s="50"/>
       <c r="L61" s="50"/>
       <c r="M61" s="110" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O61" s="40"/>
       <c r="P61" s="40"/>
@@ -14744,17 +14747,17 @@
         <v>sacs:Procedure_hasBeginningDate</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D62" s="50"/>
       <c r="E62" s="43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G62" s="50"/>
       <c r="H62" s="59">
@@ -14764,11 +14767,11 @@
         <v>1.0</v>
       </c>
       <c r="J62" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K62" s="50"/>
       <c r="L62" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M62" s="110"/>
       <c r="O62" s="40"/>
@@ -14805,17 +14808,17 @@
         <v>sacs:Procedure_hasEndDate</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" s="50"/>
       <c r="E63" s="43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G63" s="50"/>
       <c r="H63" s="59">
@@ -14825,11 +14828,11 @@
         <v>1.0</v>
       </c>
       <c r="J63" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K63" s="50"/>
       <c r="L63" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M63" s="110"/>
       <c r="O63" s="40"/>
@@ -14905,7 +14908,7 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -14954,17 +14957,17 @@
         <v>sacs:Sac_name</v>
       </c>
       <c r="B66" s="91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C66" s="80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D66" s="91"/>
       <c r="E66" s="80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F66" s="82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G66" s="91"/>
       <c r="H66" s="83">
@@ -14974,10 +14977,10 @@
         <v>1.0</v>
       </c>
       <c r="J66" s="84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K66" s="84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L66" s="91"/>
       <c r="M66" s="79"/>
@@ -14985,7 +14988,7 @@
       <c r="O66" s="79"/>
       <c r="P66" s="79"/>
       <c r="Q66" s="86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R66" s="86"/>
       <c r="S66" s="79"/>
@@ -15018,17 +15021,17 @@
         <v>sacs:Sac_hasCarrierType</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D67" s="50"/>
       <c r="E67" s="41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G67" s="50"/>
       <c r="H67" s="59">
@@ -15038,15 +15041,15 @@
         <v>1.0</v>
       </c>
       <c r="J67" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K67" s="42"/>
       <c r="L67" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N67" s="50"/>
       <c r="O67" s="93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P67" s="40"/>
       <c r="Q67" s="40"/>
@@ -15081,17 +15084,17 @@
         <v>sacs:Sac_physicalCharacteristicsNote</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D68" s="50"/>
       <c r="E68" s="43" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G68" s="50"/>
       <c r="H68" s="59"/>
@@ -15099,10 +15102,10 @@
         <v>1.0</v>
       </c>
       <c r="J68" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K68" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L68" s="50"/>
       <c r="M68" s="50"/>
@@ -15141,17 +15144,17 @@
         <v>sacs:Sac_structure</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D69" s="50"/>
       <c r="E69" s="43" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G69" s="50"/>
       <c r="H69" s="59"/>
@@ -15159,10 +15162,10 @@
         <v>1.0</v>
       </c>
       <c r="J69" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K69" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L69" s="50"/>
       <c r="M69" s="50"/>
@@ -15201,17 +15204,17 @@
         <v>sacs:Sac_hasOrHadIdentifier</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D70" s="50"/>
       <c r="E70" s="43" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G70" s="50"/>
       <c r="H70" s="59">
@@ -15219,7 +15222,7 @@
       </c>
       <c r="I70" s="59"/>
       <c r="J70" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K70" s="50"/>
       <c r="L70" s="43" t="s">
@@ -15261,17 +15264,17 @@
         <v>sacs:Sac_wasComponentOf</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G71" s="50"/>
       <c r="H71" s="59"/>
@@ -15279,10 +15282,10 @@
         <v>1.0</v>
       </c>
       <c r="J71" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M71" s="43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N71" s="50"/>
       <c r="O71" s="40"/>
@@ -15319,17 +15322,17 @@
         <v>sacs:Sac_isOrWasInstantiationOf</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D72" s="50"/>
       <c r="E72" s="94" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F72" s="50" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G72" s="50"/>
       <c r="H72" s="59">
@@ -15339,10 +15342,10 @@
         <v>1.0</v>
       </c>
       <c r="J72" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L72" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M72" s="50"/>
       <c r="N72" s="50"/>
@@ -15380,27 +15383,27 @@
         <v>sacs:Sac_hasOrganicProvenance</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D73" s="50"/>
       <c r="E73" s="43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G73" s="50"/>
       <c r="H73" s="59"/>
       <c r="I73" s="59"/>
       <c r="J73" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K73" s="50"/>
       <c r="M73" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N73" s="50"/>
       <c r="P73" s="40"/>
@@ -15436,17 +15439,17 @@
         <v>sacs:Sac_documents</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D74" s="40"/>
       <c r="E74" s="41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F74" s="50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G74" s="40"/>
       <c r="H74" s="59">
@@ -15456,12 +15459,12 @@
         <v>1.0</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K74" s="40"/>
       <c r="L74" s="43"/>
       <c r="M74" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N74" s="40"/>
       <c r="O74" s="40"/>
@@ -15537,7 +15540,7 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -15586,17 +15589,17 @@
         <v>sacs:PersonneMorale_name</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D77" s="50"/>
       <c r="E77" s="43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F77" s="43" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G77" s="50"/>
       <c r="H77" s="59">
@@ -15606,10 +15609,10 @@
         <v>1.0</v>
       </c>
       <c r="J77" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K77" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L77" s="50"/>
       <c r="M77" s="50"/>
@@ -15617,7 +15620,7 @@
       <c r="O77" s="40"/>
       <c r="P77" s="40"/>
       <c r="Q77" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R77" s="52"/>
       <c r="S77" s="40"/>
@@ -15650,17 +15653,17 @@
         <v>sacs:PersonneMorale_hasOrHadCorporateBodyType</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="41" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F78" s="43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G78" s="40"/>
       <c r="H78" s="41">
@@ -15670,11 +15673,11 @@
         <v>1.0</v>
       </c>
       <c r="J78" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K78" s="40"/>
       <c r="L78" s="43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M78" s="40"/>
       <c r="N78" s="40"/>
@@ -15712,27 +15715,27 @@
         <v>sacs:PersonneMorale_agentHasOrHadLocation</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D79" s="40"/>
       <c r="E79" s="94" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F79" s="43" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
       <c r="I79" s="40"/>
       <c r="J79" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K79" s="50"/>
       <c r="L79" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M79" s="40"/>
       <c r="N79" s="40"/>
@@ -15808,7 +15811,7 @@
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
@@ -15857,17 +15860,17 @@
         <v>sacs:PersonnePhysique_name</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D82" s="50"/>
       <c r="E82" s="43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F82" s="43" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G82" s="50"/>
       <c r="H82" s="59">
@@ -15877,10 +15880,10 @@
         <v>1.0</v>
       </c>
       <c r="J82" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K82" s="46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L82" s="50"/>
       <c r="M82" s="50"/>
@@ -15888,7 +15891,7 @@
       <c r="O82" s="40"/>
       <c r="P82" s="40"/>
       <c r="Q82" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R82" s="52"/>
       <c r="S82" s="40"/>
@@ -15921,17 +15924,17 @@
         <v>sacs:PersonnePhysique_hasOrHadOccupationOfType</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D83" s="50"/>
       <c r="E83" s="43" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F83" s="43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G83" s="50"/>
       <c r="H83" s="59">
@@ -15939,11 +15942,11 @@
       </c>
       <c r="I83" s="59"/>
       <c r="J83" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K83" s="50"/>
       <c r="L83" s="50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M83" s="50"/>
       <c r="N83" s="50"/>
@@ -15981,17 +15984,17 @@
         <v>sacs:PersonnePhysique_hasOrHadDemographicGroup</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G84" s="40"/>
       <c r="H84" s="59">
@@ -16001,12 +16004,12 @@
         <v>1.0</v>
       </c>
       <c r="J84" s="42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K84" s="40"/>
       <c r="L84" s="40"/>
       <c r="M84" s="41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N84" s="40"/>
       <c r="O84" s="41"/>
@@ -16125,7 +16128,7 @@
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
@@ -16772,7 +16775,7 @@
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="78" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="48"/>
@@ -16821,14 +16824,14 @@
         <v>sacs:LegalStatus_inScheme</v>
       </c>
       <c r="B103" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C103" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
@@ -16839,7 +16842,7 @@
       <c r="L103" s="40"/>
       <c r="M103" s="40"/>
       <c r="O103" s="112" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q103" s="52"/>
       <c r="S103" s="40"/>
@@ -16872,14 +16875,14 @@
         <v>sacs:IdentifierType_inScheme</v>
       </c>
       <c r="B104" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D104" s="40"/>
       <c r="E104" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F104" s="40"/>
       <c r="G104" s="40"/>
@@ -16890,7 +16893,7 @@
       <c r="L104" s="40"/>
       <c r="M104" s="40"/>
       <c r="O104" s="112" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q104" s="52"/>
       <c r="S104" s="40"/>
@@ -16923,14 +16926,14 @@
         <v>sacs:PlaceType_inScheme</v>
       </c>
       <c r="B105" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C105" s="58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
@@ -16941,7 +16944,7 @@
       <c r="L105" s="40"/>
       <c r="M105" s="40"/>
       <c r="O105" s="112" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q105" s="52"/>
       <c r="S105" s="40"/>
@@ -16974,17 +16977,17 @@
         <v>sacs:EventType_inScheme</v>
       </c>
       <c r="B106" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C106" s="58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E106" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F106" s="1"/>
       <c r="O106" s="112" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q106" s="52"/>
       <c r="Y106" s="114"/>
@@ -16995,17 +16998,17 @@
         <v>sacs:OccupationType_inScheme</v>
       </c>
       <c r="B107" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C107" s="58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E107" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F107" s="1"/>
       <c r="O107" s="112" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q107" s="52"/>
       <c r="Y107" s="114"/>
@@ -17016,17 +17019,17 @@
         <v>sacs:ActivityType_inScheme</v>
       </c>
       <c r="B108" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E108" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F108" s="1"/>
       <c r="O108" s="112" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q108" s="52"/>
       <c r="Y108" s="114"/>
@@ -17037,17 +17040,17 @@
         <v>sacs:CarrierType_inScheme</v>
       </c>
       <c r="B109" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E109" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F109" s="1"/>
       <c r="O109" s="112" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q109" s="52"/>
       <c r="Y109" s="114"/>
@@ -17058,17 +17061,17 @@
         <v>sacs:DemographicGroup_inScheme</v>
       </c>
       <c r="B110" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E110" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F110" s="1"/>
       <c r="O110" s="112" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q110" s="52"/>
       <c r="Y110" s="114"/>
@@ -17079,17 +17082,17 @@
         <v>sacs:CorporateBodyType_inScheme</v>
       </c>
       <c r="B111" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E111" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F111" s="1"/>
       <c r="O111" s="112" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q111" s="52"/>
       <c r="Y111" s="114"/>
@@ -17100,17 +17103,17 @@
         <v>sacs:TypeProcedure_inScheme</v>
       </c>
       <c r="B112" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E112" s="111" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F112" s="1"/>
       <c r="O112" s="112" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q112" s="52"/>
       <c r="Y112" s="114"/>
@@ -17122,7 +17125,7 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="78" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="48"/>
@@ -17171,14 +17174,14 @@
         <v>sacs:LegalStatus_prefLabel</v>
       </c>
       <c r="B115" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D115" s="40"/>
       <c r="E115" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
@@ -17190,7 +17193,7 @@
       <c r="M115" s="40"/>
       <c r="O115" s="112"/>
       <c r="Q115" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S115" s="40"/>
       <c r="T115" s="40"/>
@@ -17222,14 +17225,14 @@
         <v>sacs:IdentifierType_prefLabel</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C116" s="58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D116" s="40"/>
       <c r="E116" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F116" s="40"/>
       <c r="G116" s="40"/>
@@ -17241,7 +17244,7 @@
       <c r="M116" s="40"/>
       <c r="O116" s="112"/>
       <c r="Q116" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S116" s="40"/>
       <c r="T116" s="40"/>
@@ -17273,14 +17276,14 @@
         <v>sacs:PlaceType_prefLabel</v>
       </c>
       <c r="B117" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C117" s="58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D117" s="40"/>
       <c r="E117" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
@@ -17292,7 +17295,7 @@
       <c r="M117" s="40"/>
       <c r="O117" s="112"/>
       <c r="Q117" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S117" s="40"/>
       <c r="T117" s="40"/>
@@ -17324,18 +17327,18 @@
         <v>sacs:EventType_prefLabel</v>
       </c>
       <c r="B118" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C118" s="58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E118" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F118" s="1"/>
       <c r="O118" s="112"/>
       <c r="Q118" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y118" s="114"/>
     </row>
@@ -17345,18 +17348,18 @@
         <v>sacs:OccupationType_prefLabel</v>
       </c>
       <c r="B119" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C119" s="58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E119" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F119" s="1"/>
       <c r="O119" s="112"/>
       <c r="Q119" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y119" s="114"/>
     </row>
@@ -17366,18 +17369,18 @@
         <v>sacs:ActivityType_prefLabel</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C120" s="58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E120" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F120" s="1"/>
       <c r="O120" s="112"/>
       <c r="Q120" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y120" s="114"/>
     </row>
@@ -17387,18 +17390,18 @@
         <v>sacs:CarrierType_prefLabel</v>
       </c>
       <c r="B121" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C121" s="58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E121" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F121" s="1"/>
       <c r="O121" s="112"/>
       <c r="Q121" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y121" s="114"/>
     </row>
@@ -17408,18 +17411,18 @@
         <v>sacs:DemographicGroup_prefLabel</v>
       </c>
       <c r="B122" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C122" s="58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E122" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F122" s="1"/>
       <c r="O122" s="112"/>
       <c r="Q122" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y122" s="114"/>
     </row>
@@ -17429,18 +17432,18 @@
         <v>sacs:CorporateBodyType_prefLabel</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C123" s="58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E123" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F123" s="1"/>
       <c r="O123" s="112"/>
       <c r="Q123" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y123" s="114"/>
     </row>
@@ -17450,18 +17453,18 @@
         <v>sacs:TypeProcedure_prefLabel</v>
       </c>
       <c r="B124" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C124" s="58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E124" s="93" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F124" s="1"/>
       <c r="O124" s="112"/>
       <c r="Q124" s="75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y124" s="114"/>
     </row>
@@ -21897,10 +21900,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="118" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C3" s="118" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D3" s="119" t="s">
         <v>51</v>
@@ -21928,10 +21931,10 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="116"/>
       <c r="D4" s="52">
@@ -21960,10 +21963,10 @@
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="116"/>
       <c r="D5" s="52">
@@ -21992,10 +21995,10 @@
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C6" s="116"/>
       <c r="D6" s="52">
